--- a/cadastro.xlsx
+++ b/cadastro.xlsx
@@ -134,6 +134,26 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PFísica" displayName="PFísica" ref="A1:K12" headerRowCount="1">
+  <autoFilter ref="A1:K12"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="data"/>
+    <tableColumn id="3" name="nome"/>
+    <tableColumn id="4" name="nasc"/>
+    <tableColumn id="5" name="idade"/>
+    <tableColumn id="6" name="sexo"/>
+    <tableColumn id="7" name="endereco"/>
+    <tableColumn id="8" name="rg"/>
+    <tableColumn id="9" name="cpf"/>
+    <tableColumn id="10" name="email"/>
+    <tableColumn id="11" name="tel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,17 +453,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,56 +525,569 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123456456</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12345678965</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1@.c</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>55998877664</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12345678932</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>a@.a</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>11887754668</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>11111111111</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1@.a</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>11111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12345678978</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1@.d</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>44444444444</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>11222133365</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1@.s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11995577668</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Renan</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D7" t="n">
         <v>1984</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E7" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Rua vila ema,1874</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rua das oliveiras,1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>123456789</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>11122266647</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>naotem@.com</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>11887764331</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nd@.nd</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>11992233664</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Renan</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rua das oliveiras,1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nd@.nd</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>11992233664</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E9" t="n">
+        <v>791</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>n@d.t</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11998876776</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E10" t="n">
+        <v>791</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>n@d.t</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>11998876776</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1287</v>
+      </c>
+      <c r="E11" t="n">
+        <v>738</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>123456678</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12345678901</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1@.c</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>11997786884</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E12" t="n">
+        <v>28</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Wa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>00000000000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0@.s</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>00000000000</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>